--- a/src/main/resources/templates/sample/students_import.xlsx
+++ b/src/main/resources/templates/sample/students_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SongLamEdu\src\main\resources\templates\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1641D2CE-FCA5-4B3B-882D-EF82C9880517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F975A6-F3AA-4111-9961-B08110083176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Địa chỉ</t>
   </si>
@@ -134,6 +134,44 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trường học hiện tại </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp học hiện tại </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Lớp 11</t>
+  </si>
+  <si>
+    <t>THPT Chuyên Nguyễn Du</t>
   </si>
 </sst>
 </file>
@@ -535,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,9 +585,11 @@
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -568,8 +608,14 @@
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -587,6 +633,12 @@
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
